--- a/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
+++ b/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File_Name</t>
   </si>
@@ -49,61 +49,40 @@
     <t>residual_1117</t>
   </si>
   <si>
-    <t>NE1.txt</t>
-  </si>
-  <si>
-    <t>NE10.txt</t>
-  </si>
-  <si>
-    <t>NE11.txt</t>
-  </si>
-  <si>
-    <t>NE12.txt</t>
-  </si>
-  <si>
-    <t>NE13.txt</t>
-  </si>
-  <si>
-    <t>NE14.txt</t>
-  </si>
-  <si>
-    <t>NE15.txt</t>
-  </si>
-  <si>
-    <t>NE16.txt</t>
-  </si>
-  <si>
-    <t>NE17.txt</t>
-  </si>
-  <si>
-    <t>NE18.txt</t>
-  </si>
-  <si>
-    <t>NE19.txt</t>
-  </si>
-  <si>
-    <t>NE2.txt</t>
-  </si>
-  <si>
-    <t>NE3.txt</t>
-  </si>
-  <si>
-    <t>NE4.txt</t>
-  </si>
-  <si>
-    <t>NE5.txt</t>
-  </si>
-  <si>
-    <t>NE6.txt</t>
-  </si>
-  <si>
-    <t>NE7.txt</t>
-  </si>
-  <si>
-    <t>NE8.txt</t>
-  </si>
-  <si>
-    <t>NE9.txt</t>
+    <t>02 NE 1.txt</t>
+  </si>
+  <si>
+    <t>04 NE 2.txt</t>
+  </si>
+  <si>
+    <t>07 NE 3.txt</t>
+  </si>
+  <si>
+    <t>12 NE 4.txt</t>
+  </si>
+  <si>
+    <t>14 NE 5.txt</t>
+  </si>
+  <si>
+    <t>18 NE 6.txt</t>
+  </si>
+  <si>
+    <t>20 NE 7.txt</t>
+  </si>
+  <si>
+    <t>25 NE 8.txt</t>
+  </si>
+  <si>
+    <t>27 NE 9.txt</t>
+  </si>
+  <si>
+    <t>29 NE 10.txt</t>
+  </si>
+  <si>
+    <t>31 NE 11.txt</t>
+  </si>
+  <si>
+    <t>33 NE 12.txt</t>
   </si>
 </sst>
 </file>
@@ -461,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,25 +489,25 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1453.432288101131</v>
+        <v>1448.004569101116</v>
       </c>
       <c r="D2">
-        <v>0.00492</v>
+        <v>0.00722</v>
       </c>
       <c r="E2">
-        <v>1122.853301936113</v>
+        <v>1117.594044392368</v>
       </c>
       <c r="G2">
-        <v>330.578986165018</v>
+        <v>330.410524708748</v>
       </c>
       <c r="H2">
-        <v>0.9996934101402095</v>
+        <v>1.000203108818374</v>
       </c>
       <c r="K2">
-        <v>52.19474041816852</v>
+        <v>141.256915563747</v>
       </c>
       <c r="L2">
-        <v>10.33463315923142</v>
+        <v>1080.953924223215</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,25 +518,25 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1453.400741331212</v>
+        <v>1448.001134958084</v>
       </c>
       <c r="D3">
-        <v>0.00525</v>
+        <v>0.00723</v>
       </c>
       <c r="E3">
-        <v>1122.834056823005</v>
+        <v>1117.811820515916</v>
       </c>
       <c r="G3">
-        <v>330.5666845082069</v>
+        <v>330.1893144421676</v>
       </c>
       <c r="H3">
-        <v>0.9997306125741638</v>
+        <v>1.000873194695351</v>
       </c>
       <c r="K3">
-        <v>61.31556119530322</v>
+        <v>136.6455115309842</v>
       </c>
       <c r="L3">
-        <v>9.650917341925908</v>
+        <v>11.98437035272926</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -568,25 +547,25 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1453.405418698395</v>
+        <v>1448.020926302389</v>
       </c>
       <c r="D4">
-        <v>0.00512</v>
+        <v>0.00702</v>
       </c>
       <c r="E4">
-        <v>1122.827264365912</v>
+        <v>1117.833297606049</v>
       </c>
       <c r="G4">
-        <v>330.5781543324827</v>
+        <v>330.1876286963393</v>
       </c>
       <c r="H4">
-        <v>0.9996959256648836</v>
+        <v>1.00087830457127</v>
       </c>
       <c r="K4">
-        <v>60.40685768499416</v>
+        <v>133.3476666884557</v>
       </c>
       <c r="L4">
-        <v>9.549417178261621</v>
+        <v>12.82306096606991</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -597,25 +576,25 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1453.404812051432</v>
+        <v>1448.11284983611</v>
       </c>
       <c r="D5">
-        <v>0.00535</v>
+        <v>0.014</v>
       </c>
       <c r="E5">
-        <v>1122.821041149154</v>
+        <v>1117.807916604986</v>
       </c>
       <c r="G5">
-        <v>330.583770902278</v>
+        <v>330.3049332311246</v>
       </c>
       <c r="H5">
-        <v>0.9996789409776883</v>
+        <v>1.000522852526561</v>
       </c>
       <c r="K5">
-        <v>63.36982722518221</v>
+        <v>231.059180373549</v>
       </c>
       <c r="L5">
-        <v>9.490974862180272</v>
+        <v>12.82309433399354</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -626,25 +605,25 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1453.40196269796</v>
+        <v>1447.991191605644</v>
       </c>
       <c r="D6">
-        <v>0.00534</v>
+        <v>0.00747</v>
       </c>
       <c r="E6">
-        <v>1122.826475353084</v>
+        <v>1117.803325208428</v>
       </c>
       <c r="G6">
-        <v>330.5754873448766</v>
+        <v>330.1878663972166</v>
       </c>
       <c r="H6">
-        <v>0.999703990923034</v>
+        <v>1.000877584043124</v>
       </c>
       <c r="K6">
-        <v>62.83784381489468</v>
+        <v>135.593271084326</v>
       </c>
       <c r="L6">
-        <v>10.0362265912445</v>
+        <v>15.41211098124478</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -655,25 +634,25 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1453.402142067024</v>
+        <v>1448.031301948534</v>
       </c>
       <c r="D7">
-        <v>0.00527</v>
+        <v>0.00663</v>
       </c>
       <c r="E7">
-        <v>1122.766481662605</v>
+        <v>1117.84096406065</v>
       </c>
       <c r="G7">
-        <v>330.6356604044192</v>
+        <v>330.190337887884</v>
       </c>
       <c r="H7">
-        <v>0.9995220527506745</v>
+        <v>1.000870092425944</v>
       </c>
       <c r="K7">
-        <v>62.74396942958747</v>
+        <v>126.639645308679</v>
       </c>
       <c r="L7">
-        <v>15.06114176909266</v>
+        <v>14.34768161339439</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -684,25 +663,25 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1453.399171199404</v>
+        <v>1448.024610067631</v>
       </c>
       <c r="D8">
-        <v>0.00504</v>
+        <v>0.00707</v>
       </c>
       <c r="E8">
-        <v>1122.833645425822</v>
+        <v>1117.825607652814</v>
       </c>
       <c r="G8">
-        <v>330.5655257735818</v>
+        <v>330.199002414817</v>
       </c>
       <c r="H8">
-        <v>0.9997341169398226</v>
+        <v>1.000843829276119</v>
       </c>
       <c r="K8">
-        <v>59.89917868655967</v>
+        <v>139.141402826869</v>
       </c>
       <c r="L8">
-        <v>9.415649783059703</v>
+        <v>13.79276673590751</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -713,25 +692,25 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1453.397194103396</v>
+        <v>1448.034876468905</v>
       </c>
       <c r="D9">
-        <v>0.00509</v>
+        <v>0.00645</v>
       </c>
       <c r="E9">
-        <v>1122.839245182774</v>
+        <v>1117.846137736414</v>
       </c>
       <c r="G9">
-        <v>330.5579489206223</v>
+        <v>330.1887387324909</v>
       </c>
       <c r="H9">
-        <v>0.9997570322514268</v>
+        <v>1.000874939795397</v>
       </c>
       <c r="K9">
-        <v>62.03948561015132</v>
+        <v>121.9973720959166</v>
       </c>
       <c r="L9">
-        <v>9.309045538208609</v>
+        <v>14.86813559853819</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -742,25 +721,25 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1453.394870873172</v>
+        <v>1448.029871734082</v>
       </c>
       <c r="D10">
-        <v>0.00516</v>
+        <v>0.00676</v>
       </c>
       <c r="E10">
-        <v>1122.821014580578</v>
+        <v>1117.849656666884</v>
       </c>
       <c r="G10">
-        <v>330.573856292594</v>
+        <v>330.1802150671983</v>
       </c>
       <c r="H10">
-        <v>0.9997089234651733</v>
+        <v>1.000900777573063</v>
       </c>
       <c r="K10">
-        <v>63.14631848454439</v>
+        <v>128.0108410899661</v>
       </c>
       <c r="L10">
-        <v>9.711568035871871</v>
+        <v>13.71787527125299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -771,25 +750,25 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1453.395161290099</v>
+        <v>1448.024917666296</v>
       </c>
       <c r="D11">
-        <v>0.00514</v>
+        <v>0.00708</v>
       </c>
       <c r="E11">
-        <v>1122.835594824286</v>
+        <v>1117.835268722676</v>
       </c>
       <c r="G11">
-        <v>330.5595664658133</v>
+        <v>330.1896489436203</v>
       </c>
       <c r="H11">
-        <v>0.999752140085706</v>
+        <v>1.000872180752186</v>
       </c>
       <c r="K11">
-        <v>69.42886084179653</v>
+        <v>134.6010612846933</v>
       </c>
       <c r="L11">
-        <v>10.93257357853461</v>
+        <v>11.310499457523</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -800,25 +779,25 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1453.398407601768</v>
+        <v>1448.022255336594</v>
       </c>
       <c r="D12">
-        <v>0.00512</v>
+        <v>0.00673</v>
       </c>
       <c r="E12">
-        <v>1122.812452646119</v>
+        <v>1117.832725050401</v>
       </c>
       <c r="G12">
-        <v>330.585954955649</v>
+        <v>330.1895302861935</v>
       </c>
       <c r="H12">
-        <v>0.9996723364860934</v>
+        <v>1.000872540427181</v>
       </c>
       <c r="K12">
-        <v>54.27562052410413</v>
+        <v>125.9009063268143</v>
       </c>
       <c r="L12">
-        <v>9.656734375180299</v>
+        <v>13.23520795115999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -829,228 +808,25 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1453.424201510606</v>
+        <v>1448.017430005813</v>
       </c>
       <c r="D13">
-        <v>0.00475</v>
+        <v>0.0071</v>
       </c>
       <c r="E13">
-        <v>1122.859250921884</v>
+        <v>1117.832456676811</v>
       </c>
       <c r="G13">
-        <v>330.5649505887216</v>
+        <v>330.1849733290023</v>
       </c>
       <c r="H13">
-        <v>0.9997358564827697</v>
+        <v>1.000886353694558</v>
       </c>
       <c r="K13">
-        <v>50.87915560942087</v>
+        <v>135.9233781216712</v>
       </c>
       <c r="L13">
-        <v>9.15667208477668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>1453.424798346457</v>
-      </c>
-      <c r="D14">
-        <v>0.0049</v>
-      </c>
-      <c r="E14">
-        <v>1122.857260395911</v>
-      </c>
-      <c r="G14">
-        <v>330.567537950546</v>
-      </c>
-      <c r="H14">
-        <v>0.9997280315208705</v>
-      </c>
-      <c r="K14">
-        <v>55.28009010931896</v>
-      </c>
-      <c r="L14">
-        <v>8.929736336691265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>1453.422647461647</v>
-      </c>
-      <c r="D15">
-        <v>0.005</v>
-      </c>
-      <c r="E15">
-        <v>1122.846603930369</v>
-      </c>
-      <c r="G15">
-        <v>330.5760435312779</v>
-      </c>
-      <c r="H15">
-        <v>0.9997023089446329</v>
-      </c>
-      <c r="K15">
-        <v>59.72757374337897</v>
-      </c>
-      <c r="L15">
-        <v>10.10222735723461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>1453.4147732511</v>
-      </c>
-      <c r="D16">
-        <v>0.00507</v>
-      </c>
-      <c r="E16">
-        <v>1122.848071616504</v>
-      </c>
-      <c r="G16">
-        <v>330.5667016345958</v>
-      </c>
-      <c r="H16">
-        <v>0.9997305607789431</v>
-      </c>
-      <c r="K16">
-        <v>59.82801524886245</v>
-      </c>
-      <c r="L16">
-        <v>9.398905530109642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>1453.420689819859</v>
-      </c>
-      <c r="D17">
-        <v>0.00515</v>
-      </c>
-      <c r="E17">
-        <v>1122.849571150359</v>
-      </c>
-      <c r="G17">
-        <v>330.5711186694996</v>
-      </c>
-      <c r="H17">
-        <v>0.9997172025497091</v>
-      </c>
-      <c r="K17">
-        <v>53.25561758242979</v>
-      </c>
-      <c r="L17">
-        <v>10.10011854416387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>1453.415957227206</v>
-      </c>
-      <c r="D18">
-        <v>0.00653</v>
-      </c>
-      <c r="E18">
-        <v>1122.840162672936</v>
-      </c>
-      <c r="G18">
-        <v>330.5757945542707</v>
-      </c>
-      <c r="H18">
-        <v>0.9997030618820624</v>
-      </c>
-      <c r="K18">
-        <v>69.24253774664061</v>
-      </c>
-      <c r="L18">
-        <v>9.663506179852643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>1453.407793068689</v>
-      </c>
-      <c r="D19">
-        <v>0.00504</v>
-      </c>
-      <c r="E19">
-        <v>1122.841307513185</v>
-      </c>
-      <c r="G19">
-        <v>330.566485555504</v>
-      </c>
-      <c r="H19">
-        <v>0.9997312142658545</v>
-      </c>
-      <c r="K19">
-        <v>57.6487664175752</v>
-      </c>
-      <c r="L19">
-        <v>8.982085466209757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>1453.409198828954</v>
-      </c>
-      <c r="D20">
-        <v>0.00525</v>
-      </c>
-      <c r="E20">
-        <v>1122.834464530559</v>
-      </c>
-      <c r="G20">
-        <v>330.5747342983943</v>
-      </c>
-      <c r="H20">
-        <v>0.9997062682403711</v>
-      </c>
-      <c r="K20">
-        <v>59.81077183240694</v>
-      </c>
-      <c r="L20">
-        <v>9.205220227794529</v>
+        <v>13.13772877370966</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
+++ b/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
@@ -489,22 +489,22 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1448.004569101116</v>
+        <v>1448.004552684449</v>
       </c>
       <c r="D2">
-        <v>0.00722</v>
+        <v>0.00804</v>
       </c>
       <c r="E2">
         <v>1117.594044392368</v>
       </c>
       <c r="G2">
-        <v>330.410524708748</v>
+        <v>330.4105082920807</v>
       </c>
       <c r="H2">
-        <v>1.000203108818374</v>
+        <v>1.000203158514135</v>
       </c>
       <c r="K2">
-        <v>141.256915563747</v>
+        <v>162.3584184550459</v>
       </c>
       <c r="L2">
         <v>1080.953924223215</v>
@@ -518,22 +518,22 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1448.001134958084</v>
+        <v>1448.001120544332</v>
       </c>
       <c r="D3">
-        <v>0.00723</v>
+        <v>0.00804</v>
       </c>
       <c r="E3">
         <v>1117.811820515916</v>
       </c>
       <c r="G3">
-        <v>330.1893144421676</v>
+        <v>330.1893000284163</v>
       </c>
       <c r="H3">
-        <v>1.000873194695351</v>
+        <v>1.000873238386462</v>
       </c>
       <c r="K3">
-        <v>136.6455115309842</v>
+        <v>157.5922465564901</v>
       </c>
       <c r="L3">
         <v>11.98437035272926</v>
@@ -547,22 +547,22 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1448.020926302389</v>
+        <v>1448.020910562887</v>
       </c>
       <c r="D4">
-        <v>0.00702</v>
+        <v>0.00781</v>
       </c>
       <c r="E4">
         <v>1117.833297606049</v>
       </c>
       <c r="G4">
-        <v>330.1876286963393</v>
+        <v>330.1876129568373</v>
       </c>
       <c r="H4">
-        <v>1.00087830457127</v>
+        <v>1.000878352281497</v>
       </c>
       <c r="K4">
-        <v>133.3476666884557</v>
+        <v>153.9367213700891</v>
       </c>
       <c r="L4">
         <v>12.82306096606991</v>
@@ -576,22 +576,22 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1448.11284983611</v>
+        <v>1448.005148160575</v>
       </c>
       <c r="D5">
-        <v>0.014</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="E5">
         <v>1117.807916604986</v>
       </c>
       <c r="G5">
-        <v>330.3049332311246</v>
+        <v>330.197231555589</v>
       </c>
       <c r="H5">
-        <v>1.000522852526561</v>
+        <v>1.000849196836357</v>
       </c>
       <c r="K5">
-        <v>231.059180373549</v>
+        <v>160.3105815422042</v>
       </c>
       <c r="L5">
         <v>12.82309433399354</v>
@@ -605,22 +605,22 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1447.991191605644</v>
+        <v>1447.991178121054</v>
       </c>
       <c r="D6">
-        <v>0.00747</v>
+        <v>0.008319999999999999</v>
       </c>
       <c r="E6">
         <v>1117.803325208428</v>
       </c>
       <c r="G6">
-        <v>330.1878663972166</v>
+        <v>330.1878529126259</v>
       </c>
       <c r="H6">
-        <v>1.000877584043124</v>
+        <v>1.000877624918112</v>
       </c>
       <c r="K6">
-        <v>135.593271084326</v>
+        <v>156.2345525909114</v>
       </c>
       <c r="L6">
         <v>15.41211098124478</v>
@@ -634,22 +634,22 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1448.031301948534</v>
+        <v>1448.031285593424</v>
       </c>
       <c r="D7">
-        <v>0.00663</v>
+        <v>0.00738</v>
       </c>
       <c r="E7">
         <v>1117.84096406065</v>
       </c>
       <c r="G7">
-        <v>330.190337887884</v>
+        <v>330.1903215327736</v>
       </c>
       <c r="H7">
-        <v>1.000870092425944</v>
+        <v>1.000870142001415</v>
       </c>
       <c r="K7">
-        <v>126.639645308679</v>
+        <v>145.5544007985566</v>
       </c>
       <c r="L7">
         <v>14.34768161339439</v>
@@ -663,22 +663,22 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1448.024610067631</v>
+        <v>1448.0245934646</v>
       </c>
       <c r="D8">
-        <v>0.00707</v>
+        <v>0.00787</v>
       </c>
       <c r="E8">
         <v>1117.825607652814</v>
       </c>
       <c r="G8">
-        <v>330.199002414817</v>
+        <v>330.1989858117863</v>
       </c>
       <c r="H8">
-        <v>1.000843829276119</v>
+        <v>1.000843879600444</v>
       </c>
       <c r="K8">
-        <v>139.141402826869</v>
+        <v>159.9017390885321</v>
       </c>
       <c r="L8">
         <v>13.79276673590751</v>
@@ -692,22 +692,22 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1448.034876468905</v>
+        <v>1448.034860209692</v>
       </c>
       <c r="D9">
-        <v>0.00645</v>
+        <v>0.00717</v>
       </c>
       <c r="E9">
         <v>1117.846137736414</v>
       </c>
       <c r="G9">
-        <v>330.1887387324909</v>
+        <v>330.1887224732777</v>
       </c>
       <c r="H9">
-        <v>1.000874939795397</v>
+        <v>1.000874989080663</v>
       </c>
       <c r="K9">
-        <v>121.9973720959166</v>
+        <v>140.0297123837476</v>
       </c>
       <c r="L9">
         <v>14.86813559853819</v>
@@ -721,22 +721,22 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1448.029871734082</v>
+        <v>1448.029855710009</v>
       </c>
       <c r="D10">
-        <v>0.00676</v>
+        <v>0.00752</v>
       </c>
       <c r="E10">
         <v>1117.849656666884</v>
       </c>
       <c r="G10">
-        <v>330.1802150671983</v>
+        <v>330.180199043125</v>
       </c>
       <c r="H10">
-        <v>1.000900777573063</v>
+        <v>1.000900826148076</v>
       </c>
       <c r="K10">
-        <v>128.0108410899661</v>
+        <v>147.199838383778</v>
       </c>
       <c r="L10">
         <v>13.71787527125299</v>
@@ -750,22 +750,22 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1448.024917666296</v>
+        <v>1448.02490078332</v>
       </c>
       <c r="D11">
-        <v>0.00708</v>
+        <v>0.00788</v>
       </c>
       <c r="E11">
         <v>1117.835268722676</v>
       </c>
       <c r="G11">
-        <v>330.1896489436203</v>
+        <v>330.1896320606443</v>
       </c>
       <c r="H11">
-        <v>1.000872180752186</v>
+        <v>1.000872231927933</v>
       </c>
       <c r="K11">
-        <v>134.6010612846933</v>
+        <v>154.6041541643658</v>
       </c>
       <c r="L11">
         <v>11.310499457523</v>
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1448.022255336594</v>
+        <v>1448.022239127118</v>
       </c>
       <c r="D12">
-        <v>0.00673</v>
+        <v>0.00749</v>
       </c>
       <c r="E12">
         <v>1117.832725050401</v>
       </c>
       <c r="G12">
-        <v>330.1895302861935</v>
+        <v>330.1895140767169</v>
       </c>
       <c r="H12">
-        <v>1.000872540427181</v>
+        <v>1.000872589561449</v>
       </c>
       <c r="K12">
-        <v>125.9009063268143</v>
+        <v>144.7660424635041</v>
       </c>
       <c r="L12">
         <v>13.23520795115999</v>
@@ -808,22 +808,22 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1448.017430005813</v>
+        <v>1448.017413887748</v>
       </c>
       <c r="D13">
-        <v>0.0071</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="E13">
         <v>1117.832456676811</v>
       </c>
       <c r="G13">
-        <v>330.1849733290023</v>
+        <v>330.1849572109372</v>
       </c>
       <c r="H13">
-        <v>1.000886353694558</v>
+        <v>1.000886402553087</v>
       </c>
       <c r="K13">
-        <v>135.9233781216712</v>
+        <v>156.1827005200318</v>
       </c>
       <c r="L13">
         <v>13.13772877370966</v>

--- a/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
+++ b/docs/Examples/Ne_Line_Fitting/Ne_Lines_fit_loop.xlsx
@@ -489,22 +489,22 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1448.004552684449</v>
+        <v>1448.004569101116</v>
       </c>
       <c r="D2">
-        <v>0.00804</v>
+        <v>0.00722</v>
       </c>
       <c r="E2">
         <v>1117.594044392368</v>
       </c>
       <c r="G2">
-        <v>330.4105082920807</v>
+        <v>330.410524708748</v>
       </c>
       <c r="H2">
-        <v>1.000203158514135</v>
+        <v>1.000203039801087</v>
       </c>
       <c r="K2">
-        <v>162.3584184550459</v>
+        <v>141.256915563747</v>
       </c>
       <c r="L2">
         <v>1080.953924223215</v>
@@ -518,22 +518,22 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1448.001120544332</v>
+        <v>1448.001134958084</v>
       </c>
       <c r="D3">
-        <v>0.00804</v>
+        <v>0.00723</v>
       </c>
       <c r="E3">
         <v>1117.811820515916</v>
       </c>
       <c r="G3">
-        <v>330.1893000284163</v>
+        <v>330.1893144421676</v>
       </c>
       <c r="H3">
-        <v>1.000873238386462</v>
+        <v>1.000873125631825</v>
       </c>
       <c r="K3">
-        <v>157.5922465564901</v>
+        <v>136.6455115309842</v>
       </c>
       <c r="L3">
         <v>11.98437035272926</v>
@@ -547,22 +547,22 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1448.020910562887</v>
+        <v>1448.020926302389</v>
       </c>
       <c r="D4">
-        <v>0.00781</v>
+        <v>0.00702</v>
       </c>
       <c r="E4">
         <v>1117.833297606049</v>
       </c>
       <c r="G4">
-        <v>330.1876129568373</v>
+        <v>330.1876286963393</v>
       </c>
       <c r="H4">
-        <v>1.000878352281497</v>
+        <v>1.000878235507392</v>
       </c>
       <c r="K4">
-        <v>153.9367213700891</v>
+        <v>133.3476666884557</v>
       </c>
       <c r="L4">
         <v>12.82306096606991</v>
@@ -576,22 +576,22 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1448.005148160575</v>
+        <v>1448.11284983611</v>
       </c>
       <c r="D5">
-        <v>0.008189999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="E5">
         <v>1117.807916604986</v>
       </c>
       <c r="G5">
-        <v>330.197231555589</v>
+        <v>330.3049332311246</v>
       </c>
       <c r="H5">
-        <v>1.000849196836357</v>
+        <v>1.00052278348721</v>
       </c>
       <c r="K5">
-        <v>160.3105815422042</v>
+        <v>231.059180373549</v>
       </c>
       <c r="L5">
         <v>12.82309433399354</v>
@@ -605,22 +605,22 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1447.991178121054</v>
+        <v>1447.991191605644</v>
       </c>
       <c r="D6">
-        <v>0.008319999999999999</v>
+        <v>0.00747</v>
       </c>
       <c r="E6">
         <v>1117.803325208428</v>
       </c>
       <c r="G6">
-        <v>330.1878529126259</v>
+        <v>330.1878663972166</v>
       </c>
       <c r="H6">
-        <v>1.000877624918112</v>
+        <v>1.000877514979296</v>
       </c>
       <c r="K6">
-        <v>156.2345525909114</v>
+        <v>135.593271084326</v>
       </c>
       <c r="L6">
         <v>15.41211098124478</v>
@@ -634,22 +634,22 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1448.031285593424</v>
+        <v>1448.031301948534</v>
       </c>
       <c r="D7">
-        <v>0.00738</v>
+        <v>0.00663</v>
       </c>
       <c r="E7">
         <v>1117.84096406065</v>
       </c>
       <c r="G7">
-        <v>330.1903215327736</v>
+        <v>330.190337887884</v>
       </c>
       <c r="H7">
-        <v>1.000870142001415</v>
+        <v>1.000870023362632</v>
       </c>
       <c r="K7">
-        <v>145.5544007985566</v>
+        <v>126.639645308679</v>
       </c>
       <c r="L7">
         <v>14.34768161339439</v>
@@ -663,22 +663,22 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1448.0245934646</v>
+        <v>1448.024610067631</v>
       </c>
       <c r="D8">
-        <v>0.00787</v>
+        <v>0.00707</v>
       </c>
       <c r="E8">
         <v>1117.825607652814</v>
       </c>
       <c r="G8">
-        <v>330.1989858117863</v>
+        <v>330.199002414817</v>
       </c>
       <c r="H8">
-        <v>1.000843879600444</v>
+        <v>1.00084376021462</v>
       </c>
       <c r="K8">
-        <v>159.9017390885321</v>
+        <v>139.141402826869</v>
       </c>
       <c r="L8">
         <v>13.79276673590751</v>
@@ -692,22 +692,22 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1448.034860209692</v>
+        <v>1448.034876468905</v>
       </c>
       <c r="D9">
-        <v>0.00717</v>
+        <v>0.00645</v>
       </c>
       <c r="E9">
         <v>1117.846137736414</v>
       </c>
       <c r="G9">
-        <v>330.1887224732777</v>
+        <v>330.1887387324909</v>
       </c>
       <c r="H9">
-        <v>1.000874989080663</v>
+        <v>1.000874870731751</v>
       </c>
       <c r="K9">
-        <v>140.0297123837476</v>
+        <v>121.9973720959166</v>
       </c>
       <c r="L9">
         <v>14.86813559853819</v>
@@ -721,22 +721,22 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1448.029855710009</v>
+        <v>1448.029871734082</v>
       </c>
       <c r="D10">
-        <v>0.00752</v>
+        <v>0.00676</v>
       </c>
       <c r="E10">
         <v>1117.849656666884</v>
       </c>
       <c r="G10">
-        <v>330.180199043125</v>
+        <v>330.1802150671983</v>
       </c>
       <c r="H10">
-        <v>1.000900826148076</v>
+        <v>1.000900708507634</v>
       </c>
       <c r="K10">
-        <v>147.199838383778</v>
+        <v>128.0108410899661</v>
       </c>
       <c r="L10">
         <v>13.71787527125299</v>
@@ -750,22 +750,22 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1448.02490078332</v>
+        <v>1448.024917666296</v>
       </c>
       <c r="D11">
-        <v>0.00788</v>
+        <v>0.00708</v>
       </c>
       <c r="E11">
         <v>1117.835268722676</v>
       </c>
       <c r="G11">
-        <v>330.1896320606443</v>
+        <v>330.1896489436203</v>
       </c>
       <c r="H11">
-        <v>1.000872231927933</v>
+        <v>1.00087211168873</v>
       </c>
       <c r="K11">
-        <v>154.6041541643658</v>
+        <v>134.6010612846933</v>
       </c>
       <c r="L11">
         <v>11.310499457523</v>
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1448.022239127118</v>
+        <v>1448.022255336594</v>
       </c>
       <c r="D12">
-        <v>0.00749</v>
+        <v>0.00673</v>
       </c>
       <c r="E12">
         <v>1117.832725050401</v>
       </c>
       <c r="G12">
-        <v>330.1895140767169</v>
+        <v>330.1895302861935</v>
       </c>
       <c r="H12">
-        <v>1.000872589561449</v>
+        <v>1.0008724713637</v>
       </c>
       <c r="K12">
-        <v>144.7660424635041</v>
+        <v>125.9009063268143</v>
       </c>
       <c r="L12">
         <v>13.23520795115999</v>
@@ -808,22 +808,22 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1448.017413887748</v>
+        <v>1448.017430005813</v>
       </c>
       <c r="D13">
-        <v>0.007900000000000001</v>
+        <v>0.0071</v>
       </c>
       <c r="E13">
         <v>1117.832456676811</v>
       </c>
       <c r="G13">
-        <v>330.1849572109372</v>
+        <v>330.1849733290023</v>
       </c>
       <c r="H13">
-        <v>1.000886402553087</v>
+        <v>1.000886284630124</v>
       </c>
       <c r="K13">
-        <v>156.1827005200318</v>
+        <v>135.9233781216712</v>
       </c>
       <c r="L13">
         <v>13.13772877370966</v>
